--- a/Bases de datos/Base de datos AL PANEL.xlsx
+++ b/Bases de datos/Base de datos AL PANEL.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8f671f597b2cb92/Documentos/Universidad Central 2021-II/Econometría III/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia Fonseca\Documents\GitHub\Analisis-Econometrico\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{A146DB13-FF0A-4C9E-AD59-CBFE8ADE7446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3DDA60D-F149-48DB-AEE4-D3F13F7A9A5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548C885B-9F73-49B8-BB24-4D57EF7794BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C3AD3F3-4E6D-40C9-B1EA-9FB441D10005}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{4C3AD3F3-4E6D-40C9-B1EA-9FB441D10005}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Taller " sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>year</t>
   </si>
@@ -93,12 +94,53 @@
   <si>
     <t>chi</t>
   </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t>Gasto</t>
+  </si>
+  <si>
+    <t>Pib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inversion </t>
+  </si>
+  <si>
+    <t>Consumo</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Sudafrica</t>
+  </si>
+  <si>
+    <t>N_Pais</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +150,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,15 +180,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{574D65D1-62F5-4AA1-8147-EFC500062E65}"/>
   </cellStyles>
@@ -455,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF6F68F-CCC5-44B6-B953-58A03C99FC69}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2524,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,4 +2639,626 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F90E9-DAFE-4A3A-9B3C-8BEEECB0AFA8}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3029247</v>
+      </c>
+      <c r="E2" s="2">
+        <v>218985.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3071948.25</v>
+      </c>
+      <c r="G2" s="3">
+        <v>13283081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2930011.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>219447.6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2925035</v>
+      </c>
+      <c r="G3" s="3">
+        <v>13382092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2968771.75</v>
+      </c>
+      <c r="E4" s="2">
+        <v>217975.8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2970447</v>
+      </c>
+      <c r="G4" s="3">
+        <v>13467870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3007877</v>
+      </c>
+      <c r="E5" s="2">
+        <v>219691</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3055583</v>
+      </c>
+      <c r="G5" s="3">
+        <v>13584286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3042064</v>
+      </c>
+      <c r="E6" s="2">
+        <v>218712.7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3084916.25</v>
+      </c>
+      <c r="G6" s="3">
+        <v>13716488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3819533.25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6657418.4000000004</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3772905.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>19132186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3830463</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6565091.7999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3686175.75</v>
+      </c>
+      <c r="G8" s="3">
+        <v>19183972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3899197.25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6531537.0999999996</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3906912.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>19270074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3998041.25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6597727.4000000004</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4233236</v>
+      </c>
+      <c r="G10" s="3">
+        <v>19353774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4051465.5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6635848.4000000004</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4196384.5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>19440892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2015</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7150100.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11253183.716287101</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7160392.5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>27915780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7740434.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12327510.9680418</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7645052</v>
+      </c>
+      <c r="G13" s="3">
+        <v>29662402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8285657</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13432216.057294801</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8071349.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>31536496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8792705</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14290546.625281001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8613421</v>
+      </c>
+      <c r="G15" s="3">
+        <v>33579996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2019</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9164505</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15417415.3258489</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8946950</v>
+      </c>
+      <c r="G16" s="3">
+        <v>35423260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2015</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18378150</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3231585</v>
+      </c>
+      <c r="F17" s="2">
+        <v>17866158</v>
+      </c>
+      <c r="G17" s="3">
+        <v>64797304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>2016</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19131150</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3303053</v>
+      </c>
+      <c r="F18" s="2">
+        <v>18611180</v>
+      </c>
+      <c r="G18" s="3">
+        <v>68728456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="2">
+        <v>19685860</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3399052</v>
+      </c>
+      <c r="F19" s="2">
+        <v>19501428</v>
+      </c>
+      <c r="G19" s="3">
+        <v>72763856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19839984</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3572027</v>
+      </c>
+      <c r="F20" s="2">
+        <v>19509394</v>
+      </c>
+      <c r="G20" s="3">
+        <v>76689208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2019</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20571246</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3713912</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20056858</v>
+      </c>
+      <c r="G21" s="3">
+        <v>81726344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="2">
+        <v>712960.6875</v>
+      </c>
+      <c r="E22" s="3">
+        <v>83929064</v>
+      </c>
+      <c r="F22" s="2">
+        <v>716985.4375</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2672701.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>2016</v>
+      </c>
+      <c r="D23" s="2">
+        <v>715806.125</v>
+      </c>
+      <c r="E23" s="3">
+        <v>91895392</v>
+      </c>
+      <c r="F23" s="2">
+        <v>722875.875</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2732552.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>2017</v>
+      </c>
+      <c r="D24" s="2">
+        <v>725931.3125</v>
+      </c>
+      <c r="E24" s="3">
+        <v>97684453</v>
+      </c>
+      <c r="F24" s="2">
+        <v>738001.125</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2791243.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="2">
+        <v>731644.6875</v>
+      </c>
+      <c r="E25" s="3">
+        <v>103786114</v>
+      </c>
+      <c r="F25" s="2">
+        <v>743263.1875</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2844233.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>2019</v>
+      </c>
+      <c r="D26" s="2">
+        <v>732761.0625</v>
+      </c>
+      <c r="E26" s="3">
+        <v>109901845</v>
+      </c>
+      <c r="F26" s="2">
+        <v>748861</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2892805.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bases de datos/Base de datos AL PANEL.xlsx
+++ b/Bases de datos/Base de datos AL PANEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia Fonseca\Documents\GitHub\Analisis-Econometrico\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548C885B-9F73-49B8-BB24-4D57EF7794BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D9DA5B-DBA2-43CA-9258-04DD5EA11E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{4C3AD3F3-4E6D-40C9-B1EA-9FB441D10005}"/>
   </bookViews>
@@ -98,16 +98,7 @@
     <t>Pais</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha </t>
-  </si>
-  <si>
     <t>Gasto</t>
-  </si>
-  <si>
-    <t>Pib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inversion </t>
   </si>
   <si>
     <t>Consumo</t>
@@ -128,7 +119,16 @@
     <t>Sudafrica</t>
   </si>
   <si>
-    <t>N_Pais</t>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock_ Inversion </t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
@@ -2646,7 +2646,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2654,7 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2665,24 +2665,24 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2694,7 +2694,7 @@
         <v>3029247</v>
       </c>
       <c r="E2" s="2">
-        <v>218985.5</v>
+        <v>1218985.5</v>
       </c>
       <c r="F2" s="2">
         <v>3071948.25</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2717,7 +2717,7 @@
         <v>2930011.5</v>
       </c>
       <c r="E3" s="2">
-        <v>219447.6</v>
+        <v>1219447.6000000001</v>
       </c>
       <c r="F3" s="2">
         <v>2925035</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>2968771.75</v>
       </c>
       <c r="E4" s="2">
-        <v>217975.8</v>
+        <v>1217975.8</v>
       </c>
       <c r="F4" s="2">
         <v>2970447</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2763,7 +2763,7 @@
         <v>3007877</v>
       </c>
       <c r="E5" s="2">
-        <v>219691</v>
+        <v>1219691</v>
       </c>
       <c r="F5" s="2">
         <v>3055583</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>3042064</v>
       </c>
       <c r="E6" s="2">
-        <v>218712.7</v>
+        <v>1218712.7</v>
       </c>
       <c r="F6" s="2">
         <v>3084916.25</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -3039,7 +3039,7 @@
         <v>18378150</v>
       </c>
       <c r="E17" s="3">
-        <v>3231585</v>
+        <v>13231585</v>
       </c>
       <c r="F17" s="2">
         <v>17866158</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3062,7 +3062,7 @@
         <v>19131150</v>
       </c>
       <c r="E18" s="3">
-        <v>3303053</v>
+        <v>13303053</v>
       </c>
       <c r="F18" s="2">
         <v>18611180</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3085,7 +3085,7 @@
         <v>19685860</v>
       </c>
       <c r="E19" s="3">
-        <v>3399052</v>
+        <v>13399052</v>
       </c>
       <c r="F19" s="2">
         <v>19501428</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3108,7 +3108,7 @@
         <v>19839984</v>
       </c>
       <c r="E20" s="3">
-        <v>3572027</v>
+        <v>13572027</v>
       </c>
       <c r="F20" s="2">
         <v>19509394</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -3131,7 +3131,7 @@
         <v>20571246</v>
       </c>
       <c r="E21" s="3">
-        <v>3713912</v>
+        <v>13713912</v>
       </c>
       <c r="F21" s="2">
         <v>20056858</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -3160,12 +3160,12 @@
         <v>716985.4375</v>
       </c>
       <c r="G22" s="2">
-        <v>2672701.5</v>
+        <v>12672701.5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -3183,12 +3183,12 @@
         <v>722875.875</v>
       </c>
       <c r="G23" s="2">
-        <v>2732552.25</v>
+        <v>12732552.25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3206,12 +3206,12 @@
         <v>738001.125</v>
       </c>
       <c r="G24" s="2">
-        <v>2791243.25</v>
+        <v>12791243.25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -3229,12 +3229,12 @@
         <v>743263.1875</v>
       </c>
       <c r="G25" s="2">
-        <v>2844233.25</v>
+        <v>12844233.25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -3252,7 +3252,7 @@
         <v>748861</v>
       </c>
       <c r="G26" s="2">
-        <v>2892805.5</v>
+        <v>12892805.5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
